--- a/Retinue To Do.xlsx
+++ b/Retinue To Do.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Bug" sheetId="2" r:id="rId1"/>
+    <sheet name="Feature" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>No</t>
   </si>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>Report</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>In check in screen, while customer is staying more than reserved day, Checkout is not asking for no of days exceed the days given</t>
+  </si>
+  <si>
+    <t>After checkout form is not refreshing</t>
+  </si>
+  <si>
+    <t>Lodge</t>
+  </si>
+  <si>
+    <t>In Check in form, after generating invoice, immediately view invoice is throwing exception.</t>
+  </si>
+  <si>
+    <t>Moveing folder is not happening in treeview in Navigator</t>
   </si>
 </sst>
 </file>
@@ -119,9 +137,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +456,126 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="71.42578125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +583,7 @@
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.42578125" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="71.42578125" customWidth="1"/>
+    <col min="6" max="6" width="62.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -495,6 +644,9 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -566,18 +718,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Retinue To Do.xlsx
+++ b/Retinue To Do.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>No</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>Moveing folder is not happening in treeview in Navigator</t>
+  </si>
+  <si>
+    <t>Check out time is not getting tracked</t>
+  </si>
+  <si>
+    <t>Checkin form-&gt; new check in -&gt; new reservation -&gt; new customer... Customer file not added in navigator</t>
+  </si>
+  <si>
+    <t>Complex, least priority</t>
+  </si>
+  <si>
+    <t>Attachment symbol is not showing in navigator when form is newly created and add attachment immediately.</t>
   </si>
 </sst>
 </file>
@@ -456,14 +468,14 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="3" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="3"/>
     <col min="6" max="6" width="71.42578125" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="3"/>
@@ -549,15 +561,45 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">

--- a/Retinue To Do.xlsx
+++ b/Retinue To Do.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>No</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>Attachment symbol is not showing in navigator when form is newly created and add attachment immediately.</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>When checking out [Lodge].[CheckinUpdateCheckOut] is throwing error when it is being called from UpdateComplition() in Crystal.Activity.Component.Dao</t>
+  </si>
+  <si>
+    <t>Very Important</t>
   </si>
 </sst>
 </file>
@@ -468,7 +477,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +535,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -568,7 +577,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -602,9 +611,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Retinue To Do.xlsx
+++ b/Retinue To Do.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Retinue To Do.xlsx
+++ b/Retinue To Do.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Feature" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>No</t>
   </si>
@@ -115,13 +115,22 @@
   </si>
   <si>
     <t>Very Important</t>
+  </si>
+  <si>
+    <t>Vanilla.Accontat.Facade.Invoice.LineItem.Server.cs -&gt; public override BinAff.Facade.Library.Dto Convert(BinAff.Core.Data data) has thrown object reference not set to an reference error while loading old record</t>
+  </si>
+  <si>
+    <t>Check in</t>
+  </si>
+  <si>
+    <t>Opne</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,7 +271,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -297,7 +305,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -473,14 +480,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.42578125" style="5" customWidth="1"/>
@@ -490,7 +497,7 @@
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -510,7 +517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -521,10 +528,10 @@
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -538,7 +545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -552,7 +559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -566,7 +573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -580,7 +587,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -597,7 +604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -611,7 +618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -626,6 +633,20 @@
       </c>
       <c r="F9" s="3" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -634,14 +655,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.42578125" customWidth="1"/>
@@ -649,7 +670,7 @@
     <col min="6" max="6" width="62.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,7 +690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -683,7 +704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -697,7 +718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -711,7 +732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -722,7 +743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -736,7 +757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -750,7 +771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -764,7 +785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -785,12 +806,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Retinue To Do.xlsx
+++ b/Retinue To Do.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>No</t>
   </si>
@@ -123,14 +123,14 @@
     <t>Check in</t>
   </si>
   <si>
-    <t>Opne</t>
+    <t>What will happen if leaving early? And if no of reservation days is not matching with no of days stayed, alert will be shown, but system should allow to check out… Reopen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +271,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -305,6 +306,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,24 +482,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="3" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="71.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="71.42578125" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -513,11 +515,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -528,10 +530,13 @@
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -545,7 +550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -559,7 +564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -573,7 +578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -587,7 +592,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -600,11 +605,11 @@
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -618,7 +623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -631,11 +636,11 @@
       <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -646,7 +651,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -655,14 +660,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.42578125" customWidth="1"/>
@@ -670,7 +675,7 @@
     <col min="6" max="6" width="62.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -704,7 +709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -718,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -732,7 +737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -743,7 +748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -757,7 +762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -771,7 +776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -785,7 +790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -806,12 +811,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Retinue To Do.xlsx
+++ b/Retinue To Do.xlsx
@@ -483,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,23 +634,23 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Retinue To Do.xlsx
+++ b/Retinue To Do.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -81,9 +81,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>In check in screen, while customer is staying more than reserved day, Checkout is not asking for no of days exceed the days given</t>
-  </si>
-  <si>
     <t>After checkout form is not refreshing</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>When checking out [Lodge].[CheckinUpdateCheckOut] is throwing error when it is being called from UpdateComplition() in Crystal.Activity.Component.Dao</t>
   </si>
   <si>
-    <t>Very Important</t>
-  </si>
-  <si>
     <t>Vanilla.Accontat.Facade.Invoice.LineItem.Server.cs -&gt; public override BinAff.Facade.Library.Dto Convert(BinAff.Core.Data data) has thrown object reference not set to an reference error while loading old record</t>
   </si>
   <si>
@@ -124,13 +118,34 @@
   </si>
   <si>
     <t>What will happen if leaving early? And if no of reservation days is not matching with no of days stayed, alert will be shown, but system should allow to check out… Reopen</t>
+  </si>
+  <si>
+    <t>Calculate extra bed in invoice generation</t>
+  </si>
+  <si>
+    <t>Validate number of bed not more than available beds</t>
+  </si>
+  <si>
+    <t>Retinue.Lodge.WinForm.CheckInForm.ValidateForm() Comment is written</t>
+  </si>
+  <si>
+    <t>Retinue.Lodge.WinForm.CheckInForm.SaveBefore() Comment is written</t>
+  </si>
+  <si>
+    <t>Alert for extra bed when reservation, check in, check out is happening. Apart from that assign extra bed information to DTO, by default extra bed will be as per definition in room. If no extrabed, it has to be made 0.</t>
+  </si>
+  <si>
+    <t>In check in screen, while customer is staying different than reserved day, Checkout is not asking for no of days exceed the days given</t>
+  </si>
+  <si>
+    <t>If checkin is done, while deleting reservation the message will be shown like "Unable to delete. Following Room checkin has this dependency: Room has reservation from 25-05-2015 till 26-05-2015". Checkin file name should be shown and the text will be "...Room is checked in for 25-05-2015 to 26-05-2015"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +157,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -180,6 +209,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -483,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,41 +565,42 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -569,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -578,35 +620,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -614,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -623,39 +666,100 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Retinue To Do.xlsx
+++ b/Retinue To Do.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t>No</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>If checkin is done, while deleting reservation the message will be shown like "Unable to delete. Following Room checkin has this dependency: Room has reservation from 25-05-2015 till 26-05-2015". Checkin file name should be shown and the text will be "...Room is checked in for 25-05-2015 to 26-05-2015"</t>
+  </si>
+  <si>
+    <t>In Navigator, while deleting payment, if there is any dependency, it is showing deniel message, but not showing the depended file.</t>
+  </si>
+  <si>
+    <t>If attachement is deleted in form it is not reflecting in Navigator attachment icon</t>
+  </si>
+  <si>
+    <t>While deleting payment, it isnot checking that it is linked with any file or not.</t>
+  </si>
+  <si>
+    <t>Payment</t>
   </si>
 </sst>
 </file>
@@ -524,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,9 +763,51 @@
         <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Retinue To Do.xlsx
+++ b/Retinue To Do.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>No</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Payment</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Open any form -&gt; click pick ancestor -&gt; in list view of open dialogue add one folder and name something -&gt;-&gt; This will create listview node in Navigator properly, but in treeview it will be shown as new folder.</t>
   </si>
 </sst>
 </file>
@@ -536,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,6 +814,20 @@
         <v>44</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Retinue To Do.xlsx
+++ b/Retinue To Do.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
   <si>
     <t>No</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>Open any form -&gt; click pick ancestor -&gt; in list view of open dialogue add one folder and name something -&gt;-&gt; This will create listview node in Navigator properly, but in treeview it will be shown as new folder.</t>
+  </si>
+  <si>
+    <t>Deleting from form container, is not deleting from navigator</t>
+  </si>
+  <si>
+    <t>Form Container / Register</t>
   </si>
 </sst>
 </file>
@@ -542,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,6 +834,20 @@
         <v>45</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Retinue To Do.xlsx
+++ b/Retinue To Do.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
   <si>
     <t>No</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Form Container / Register</t>
+  </si>
+  <si>
+    <t>Add one payment as cash -&gt; Click edit in line item grid -&gt; click on edit button -&gt; Showing error</t>
   </si>
 </sst>
 </file>
@@ -548,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,6 +851,20 @@
         <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Retinue To Do.xlsx
+++ b/Retinue To Do.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>No</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>Add one payment as cash -&gt; Click edit in line item grid -&gt; click on edit button -&gt; Showing error</t>
+  </si>
+  <si>
+    <t>When attachment form is deleted, the link with depended for in not getting deleted. As for example, in Reservation add advance payment -&gt; Delete payment form from navigator -&gt; in attachment list of reservation form one item will be shown with .frm path</t>
+  </si>
+  <si>
+    <t>Not sure about impact</t>
   </si>
 </sst>
 </file>
@@ -551,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,6 +871,20 @@
         <v>44</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Retinue To Do.xlsx
+++ b/Retinue To Do.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>No</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Check in</t>
-  </si>
-  <si>
-    <t>What will happen if leaving early? And if no of reservation days is not matching with no of days stayed, alert will be shown, but system should allow to check out… Reopen</t>
   </si>
   <si>
     <t>Calculate extra bed in invoice generation</t>
@@ -559,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,21 +590,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>33</v>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -626,17 +620,17 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
+      <c r="D4" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -733,7 +727,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>32</v>
@@ -742,7 +736,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -750,7 +744,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>32</v>
@@ -759,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -767,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>32</v>
@@ -781,7 +775,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
@@ -795,7 +789,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
@@ -809,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
@@ -823,10 +817,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>5</v>
@@ -837,10 +831,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>5</v>
@@ -851,10 +845,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>5</v>
@@ -865,10 +859,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>5</v>
@@ -879,10 +873,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>

--- a/Retinue To Do.xlsx
+++ b/Retinue To Do.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Feature" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>No</t>
   </si>
@@ -81,21 +81,12 @@
     <t>?</t>
   </si>
   <si>
-    <t>After checkout form is not refreshing</t>
-  </si>
-  <si>
     <t>Lodge</t>
   </si>
   <si>
-    <t>In Check in form, after generating invoice, immediately view invoice is throwing exception.</t>
-  </si>
-  <si>
     <t>Moveing folder is not happening in treeview in Navigator</t>
   </si>
   <si>
-    <t>Check out time is not getting tracked</t>
-  </si>
-  <si>
     <t>Checkin form-&gt; new check in -&gt; new reservation -&gt; new customer... Customer file not added in navigator</t>
   </si>
   <si>
@@ -105,12 +96,6 @@
     <t>Attachment symbol is not showing in navigator when form is newly created and add attachment immediately.</t>
   </si>
   <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>When checking out [Lodge].[CheckinUpdateCheckOut] is throwing error when it is being called from UpdateComplition() in Crystal.Activity.Component.Dao</t>
-  </si>
-  <si>
     <t>Vanilla.Accontat.Facade.Invoice.LineItem.Server.cs -&gt; public override BinAff.Facade.Library.Dto Convert(BinAff.Core.Data data) has thrown object reference not set to an reference error while loading old record</t>
   </si>
   <si>
@@ -132,9 +117,6 @@
     <t>Alert for extra bed when reservation, check in, check out is happening. Apart from that assign extra bed information to DTO, by default extra bed will be as per definition in room. If no extrabed, it has to be made 0.</t>
   </si>
   <si>
-    <t>In check in screen, while customer is staying different than reserved day, Checkout is not asking for no of days exceed the days given</t>
-  </si>
-  <si>
     <t>If checkin is done, while deleting reservation the message will be shown like "Unable to delete. Following Room checkin has this dependency: Room has reservation from 25-05-2015 till 26-05-2015". Checkin file name should be shown and the text will be "...Room is checked in for 25-05-2015 to 26-05-2015"</t>
   </si>
   <si>
@@ -169,13 +151,16 @@
   </si>
   <si>
     <t>Not sure about impact</t>
+  </si>
+  <si>
+    <t>Arpan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,19 +184,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -226,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -241,17 +238,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,15 +557,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="3" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="3"/>
@@ -571,7 +574,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -590,296 +593,451 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <f t="shared" ref="A3:A51" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="D7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C17" s="3" t="s">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C19" s="3" t="s">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C21" s="3" t="s">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <f t="shared" si="0"/>
         <v>50</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Retinue To Do.xlsx
+++ b/Retinue To Do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Bug" sheetId="2" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>No</t>
   </si>
@@ -105,27 +106,12 @@
     <t>Calculate extra bed in invoice generation</t>
   </si>
   <si>
-    <t>Validate number of bed not more than available beds</t>
-  </si>
-  <si>
-    <t>Retinue.Lodge.WinForm.CheckInForm.ValidateForm() Comment is written</t>
-  </si>
-  <si>
-    <t>Retinue.Lodge.WinForm.CheckInForm.SaveBefore() Comment is written</t>
-  </si>
-  <si>
-    <t>Alert for extra bed when reservation, check in, check out is happening. Apart from that assign extra bed information to DTO, by default extra bed will be as per definition in room. If no extrabed, it has to be made 0.</t>
-  </si>
-  <si>
     <t>If checkin is done, while deleting reservation the message will be shown like "Unable to delete. Following Room checkin has this dependency: Room has reservation from 25-05-2015 till 26-05-2015". Checkin file name should be shown and the text will be "...Room is checked in for 25-05-2015 to 26-05-2015"</t>
   </si>
   <si>
     <t>In Navigator, while deleting payment, if there is any dependency, it is showing deniel message, but not showing the depended file.</t>
   </si>
   <si>
-    <t>If attachement is deleted in form it is not reflecting in Navigator attachment icon</t>
-  </si>
-  <si>
     <t>While deleting payment, it isnot checking that it is linked with any file or not.</t>
   </si>
   <si>
@@ -144,23 +130,20 @@
     <t>Form Container / Register</t>
   </si>
   <si>
-    <t>Add one payment as cash -&gt; Click edit in line item grid -&gt; click on edit button -&gt; Showing error</t>
-  </si>
-  <si>
     <t>When attachment form is deleted, the link with depended for in not getting deleted. As for example, in Reservation add advance payment -&gt; Delete payment form from navigator -&gt; in attachment list of reservation form one item will be shown with .frm path</t>
   </si>
   <si>
     <t>Not sure about impact</t>
   </si>
   <si>
-    <t>Arpan</t>
+    <t>If attachement is deleted in form, it is not reflecting in Navigator attachment icon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +179,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,7 +196,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -250,11 +246,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,7 +559,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +645,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -656,67 +655,62 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
@@ -725,31 +719,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -761,22 +755,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>38</v>
@@ -790,44 +784,17 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/Retinue To Do.xlsx
+++ b/Retinue To Do.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>No</t>
   </si>
@@ -97,24 +97,9 @@
     <t>Attachment symbol is not showing in navigator when form is newly created and add attachment immediately.</t>
   </si>
   <si>
-    <t>Vanilla.Accontat.Facade.Invoice.LineItem.Server.cs -&gt; public override BinAff.Facade.Library.Dto Convert(BinAff.Core.Data data) has thrown object reference not set to an reference error while loading old record</t>
-  </si>
-  <si>
-    <t>Check in</t>
-  </si>
-  <si>
-    <t>Calculate extra bed in invoice generation</t>
-  </si>
-  <si>
-    <t>If checkin is done, while deleting reservation the message will be shown like "Unable to delete. Following Room checkin has this dependency: Room has reservation from 25-05-2015 till 26-05-2015". Checkin file name should be shown and the text will be "...Room is checked in for 25-05-2015 to 26-05-2015"</t>
-  </si>
-  <si>
     <t>In Navigator, while deleting payment, if there is any dependency, it is showing deniel message, but not showing the depended file.</t>
   </si>
   <si>
-    <t>While deleting payment, it isnot checking that it is linked with any file or not.</t>
-  </si>
-  <si>
     <t>Payment</t>
   </si>
   <si>
@@ -137,6 +122,9 @@
   </si>
   <si>
     <t>If attachement is deleted in form, it is not reflecting in Navigator attachment icon</t>
+  </si>
+  <si>
+    <t>While deleting payment, it is not checking that it is linked with any file or not.</t>
   </si>
 </sst>
 </file>
@@ -187,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,12 +185,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -250,9 +232,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -640,31 +619,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>28</v>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
@@ -672,16 +651,16 @@
       <c r="E6" s="3"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>5</v>
@@ -689,64 +668,55 @@
       <c r="E7" s="3"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>31</v>
+      <c r="B10" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -754,29 +724,11 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">

--- a/Retinue To Do.xlsx
+++ b/Retinue To Do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Bug" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>No</t>
   </si>
@@ -97,12 +96,6 @@
     <t>Attachment symbol is not showing in navigator when form is newly created and add attachment immediately.</t>
   </si>
   <si>
-    <t>In Navigator, while deleting payment, if there is any dependency, it is showing deniel message, but not showing the depended file.</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
     <t>Register</t>
   </si>
   <si>
@@ -122,9 +115,6 @@
   </si>
   <si>
     <t>If attachement is deleted in form, it is not reflecting in Navigator attachment icon</t>
-  </si>
-  <si>
-    <t>While deleting payment, it is not checking that it is linked with any file or not.</t>
   </si>
 </sst>
 </file>
@@ -175,18 +165,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -201,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -229,9 +213,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -538,7 +519,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,8 +605,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>26</v>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -634,16 +615,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
@@ -651,16 +632,16 @@
       <c r="E6" s="3"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>35</v>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>5</v>
@@ -668,16 +649,16 @@
       <c r="E7" s="3"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
@@ -688,29 +669,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
